--- a/tensor.xlsx
+++ b/tensor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="30">
   <si>
     <t>предшественник</t>
   </si>
@@ -25,7 +25,22 @@
     <t>avg</t>
   </si>
   <si>
-    <t>примечание</t>
+    <t>коэффициент -1 год относительно пара</t>
+  </si>
+  <si>
+    <t>примечание -1 год</t>
+  </si>
+  <si>
+    <t>коэффициент -2 года относительно пара</t>
+  </si>
+  <si>
+    <t>примечание -2 года</t>
+  </si>
+  <si>
+    <t>коэффициент -3 года относительно пара</t>
+  </si>
+  <si>
+    <t>примечание -3 года</t>
   </si>
   <si>
     <t>пшеница</t>
@@ -73,7 +88,22 @@
     <t>получено из пшеница, оз. рожь</t>
   </si>
   <si>
-    <t>получено из оз. рожь</t>
+    <t>получено из влияния донник(вика)клевера и пара на оз. рожь</t>
+  </si>
+  <si>
+    <t>получено из пшеница, ячмень, донник(вика)клевер, вика-овес, рапс, клевер, вика-овес (з/м)</t>
+  </si>
+  <si>
+    <t>получено из ячмень</t>
+  </si>
+  <si>
+    <t>получено из овес, пшеница, оз. рожь</t>
+  </si>
+  <si>
+    <t>получено из пшеница, овес, ячмень, оз. рожь, вика-овес, рапс, клевер, вика-овес (з/м)</t>
+  </si>
+  <si>
+    <t>получено из донник(вика)клевер</t>
   </si>
 </sst>
 </file>
@@ -431,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,1705 +480,3130 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>17.59904761904762</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>0.550525203017635</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>0.9543806483034796</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>0.9810603953320182</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>18.98571428571428</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>0.7125602833147663</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>0.9902604210887477</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>20.75</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>0.7125602833147663</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>0.9774422993177531</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>27.76980791227217</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>0.7830502102922172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0.9902604210887477</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>30.95962742549169</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>38.24424564325444</v>
+      </c>
+      <c r="E7">
+        <v>0.682186156209965</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>0.9976325494165021</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>23.59241229964946</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>0.6821861562099649</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>5.90836064547743</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>0.6821861562099649</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>39.71731322793161</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>0.682186156209965</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>26.97399139593255</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <v>0.682186156209965</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>16.1047619047619</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <v>0.5037816539330162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>15.151938844204</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13">
+        <v>0.5686733547716937</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>16.55996325899647</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14">
+        <v>0.5686733547716938</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>0.9810671256454392</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>23.14903297741043</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16">
+        <v>0.652754070114111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>25.80808043415836</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>31.88056994807797</v>
+      </c>
+      <c r="E17">
+        <v>0.5686733547716937</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>19.66673777746569</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18">
+        <v>0.5686733547716937</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>4.925235199921842</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19">
+        <v>0.5686733547716936</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>33.10852551058571</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20">
+        <v>0.5686733547716937</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>22.48563685890243</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21">
+        <v>0.5686733547716937</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>0.9810671256454391</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>1.04779995463824</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>17.07619047619047</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22">
+        <v>0.5341694296285617</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>18.49907753137907</v>
       </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23">
+        <v>0.6942961285759901</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>20.21814154576983</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24">
+        <v>0.6942961285759901</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>28.26276955238487</v>
       </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26">
+        <v>0.7969506923256436</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>32.33809523809524</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>39.94705882352941</v>
+      </c>
+      <c r="E27">
+        <v>0.7125602833147663</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>24.64285714285714</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28">
+        <v>0.7125602833147662</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>6.171428571428572</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29">
+        <v>0.7125602833147662</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>41.48571428571428</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30">
+        <v>0.7125602833147663</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <v>28.175</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31">
+        <v>0.7125602833147663</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31">
+        <v>1.007273906140602</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>31.96774193548387</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>26.64436221086369</v>
       </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>29.12034319885591</v>
       </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>35.46363636363636</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>45.38296056533117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>56.06130422776202</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>34.58354011568087</v>
       </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>8.660921350709645</v>
       </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>58.22063796865926</v>
       </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>39.54051419892846</v>
       </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41">
+        <v>1.072820846564633</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41">
+        <v>0.9941880922620898</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>22.51212121212121</v>
       </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42">
+        <v>0.7042136807020762</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>21.18021277660181</v>
       </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43">
+        <v>0.7949228661951613</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>23.14842668022132</v>
       </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44">
+        <v>0.7949228661951614</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>32.35899042858649</v>
       </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46">
+        <v>0.9124555106753433</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>36.07595308901503</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>44.5644126393715</v>
+      </c>
+      <c r="E47">
+        <v>0.7949228661951614</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>27.49124683193238</v>
       </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48">
+        <v>0.7949228661951613</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>6.884764423996978</v>
       </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49">
+        <v>0.7949228661951612</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>46.28091640575745</v>
       </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50">
+        <v>0.7949228661951613</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>31.43165887784268</v>
       </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51">
+        <v>0.7949228661951614</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51">
+        <v>1.066761162296244</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
       <c r="D52">
-        <v>17.82646177387258</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>23.09789447032172</v>
+      </c>
+      <c r="E52">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>16.7717759631325</v>
-      </c>
-      <c r="E53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>19.25155263758051</v>
+      </c>
+      <c r="E53">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>18.3303270025959</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>21.04054191579058</v>
+      </c>
+      <c r="E54">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>25.62380952380952</v>
       </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>28.56712580025905</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>40.50639834163965</v>
+      </c>
+      <c r="E57">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>21.7692351665941</v>
-      </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>24.98790692236748</v>
+      </c>
+      <c r="E58">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>5.451773676503567</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>6.257841037949421</v>
+      </c>
+      <c r="E59">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>36.64803415871842</v>
-      </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>42.06659808843776</v>
+      </c>
+      <c r="E60">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D61">
-        <v>24.88949220713926</v>
-      </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>28.56950691457348</v>
+      </c>
+      <c r="E61">
+        <v>0.7225375666800942</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61">
+        <v>0.9529257927427263</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61">
+        <v>0.9764625488781752</v>
+      </c>
+      <c r="J61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>18.17619047619048</v>
       </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62">
+        <v>0.5685791168132238</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
         <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
       </c>
       <c r="D63">
         <v>17.10081329637098</v>
       </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63">
+        <v>0.6418173255953741</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>18.68994079230914</v>
       </c>
-      <c r="E64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64">
+        <v>0.6418173255953742</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>26.12651060756228</v>
       </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="E66">
+        <v>0.7367126805516152</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67">
-        <v>29.12757037764118</v>
-      </c>
-      <c r="E67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>35.98111634885086</v>
+      </c>
+      <c r="E67">
+        <v>0.6418173255953741</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>22.19631522666663</v>
       </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68">
+        <v>0.6418173255953741</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>5.558729378504339</v>
       </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69">
+        <v>0.6418173255953741</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D70">
         <v>37.36701415550138</v>
       </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70">
+        <v>0.6418173255953741</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D71">
         <v>25.37778707582218</v>
       </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71">
+        <v>0.6418173255953742</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71">
+        <v>0.994371989826289</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71">
+        <v>1.014978190396986</v>
+      </c>
+      <c r="J71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D72">
         <v>15.58571428571429</v>
       </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72">
+        <v>0.4875450482917688</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>14.66360018837365</v>
       </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73">
+        <v>0.5503453253009326</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
         <v>11</v>
-      </c>
-      <c r="C74" t="s">
-        <v>6</v>
       </c>
       <c r="D74">
         <v>16.02624475064916</v>
       </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74">
+        <v>0.5503453253009325</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>22.40295237583215</v>
       </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76">
+        <v>0.6317161654297712</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77">
-        <v>24.97630019544658</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>30.85307671202224</v>
+      </c>
+      <c r="E77">
+        <v>0.5503453253009326</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D78">
         <v>19.03288963502224</v>
       </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78">
+        <v>0.5503453253009325</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D79">
         <v>4.766497578162091</v>
       </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79">
+        <v>0.5503453253009325</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D80">
         <v>32.04145594208961</v>
       </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80">
+        <v>0.5503453253009325</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>21.76093714937543</v>
       </c>
-      <c r="E81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81">
+        <v>0.5503453253009326</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81">
+        <v>0.9846312029871745</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81">
+        <v>0.9649688555474465</v>
+      </c>
+      <c r="J81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D82">
         <v>23.58571428571429</v>
       </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82">
+        <v>0.7377973187256739</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>22.19028772777718</v>
       </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83">
+        <v>0.8328323850337668</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>24.252364879305</v>
       </c>
-      <c r="E84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84">
+        <v>0.8328323850337669</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
         <v>12</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>33.90217632676342</v>
       </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86">
+        <v>0.9559701091884071</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87">
-        <v>37.79639928751814</v>
-      </c>
-      <c r="E87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>46.68966970811064</v>
+      </c>
+      <c r="E87">
+        <v>0.8328323850337669</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>28.80229219745345</v>
       </c>
-      <c r="E88" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="E88">
+        <v>0.8328323850337668</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D89">
         <v>7.213095785101386</v>
       </c>
-      <c r="E89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89">
+        <v>0.8328323850337668</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D90">
         <v>48.48803277762597</v>
       </c>
-      <c r="E90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90">
+        <v>0.8328323850337669</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D91">
         <v>32.93062074575511</v>
       </c>
-      <c r="E91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91">
+        <v>0.8328323850337668</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91">
+        <v>1.088938795389361</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91">
+        <v>1.083652981211494</v>
+      </c>
+      <c r="J91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>20.66666666666667</v>
       </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="E92">
+        <v>0.646485031954255</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D93">
         <v>19.44394281012577</v>
       </c>
-      <c r="E93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="E93">
+        <v>0.7297582376431553</v>
+      </c>
+      <c r="F93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>21.25081033236093</v>
       </c>
-      <c r="E94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="E94">
+        <v>0.7297582376431553</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
         <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
       </c>
       <c r="D96">
         <v>29.70632853990576</v>
       </c>
-      <c r="E96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="E96">
+        <v>0.8376560213764762</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97">
-        <v>33.11858932118489</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>40.91119857322838</v>
+      </c>
+      <c r="E97">
+        <v>0.7297582376431553</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>25.23762328628063</v>
       </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98">
+        <v>0.7297582376431552</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D99">
         <v>6.320378701259846</v>
       </c>
-      <c r="E99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99">
+        <v>0.7297582376431552</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D100">
         <v>42.48699015846896</v>
       </c>
-      <c r="E100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100">
+        <v>0.7297582376431553</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>28.85501595731419</v>
       </c>
-      <c r="E101" t="s">
-        <v>16</v>
+      <c r="E101">
+        <v>0.7297582376431554</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101">
+        <v>0.982060717571297</v>
+      </c>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101">
+        <v>0.9581600728684013</v>
+      </c>
+      <c r="J101" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
